--- a/art_cats/excel_files/AuctionCats.jeremyWarrenDonation.xlsx
+++ b/art_cats/excel_files/AuctionCats.jeremyWarrenDonation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="245">
   <si>
     <t>sublibrary</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>Auction LVIII</t>
-  </si>
-  <si>
-    <t>Republic of San Marino</t>
   </si>
   <si>
     <t>San Marino</t>
@@ -3065,21 +3062,21 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="4" t="s">
         <v>233</v>
       </c>
       <c r="M35" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>122</v>
@@ -3087,18 +3084,18 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" ht="15.0" customHeight="1">
@@ -3110,7 +3107,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3126,14 +3123,14 @@
         <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>56</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>94</v>
@@ -3143,14 +3140,14 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -20551,7 +20548,7 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
